--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2625.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2625.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7860317120101711</v>
+        <v>1.256669640541077</v>
       </c>
       <c r="B1">
-        <v>1.669140471966867</v>
+        <v>2.288324594497681</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.907950401306152</v>
       </c>
       <c r="D1">
-        <v>1.726719602294765</v>
+        <v>2.748371839523315</v>
       </c>
       <c r="E1">
-        <v>0.9049540517722091</v>
+        <v>1.364812135696411</v>
       </c>
     </row>
   </sheetData>
